--- a/Study_Design/ContentMap.xlsx
+++ b/Study_Design/ContentMap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steve\Google Drive\Dev\src\SSATrust\SSATrust\Study_Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C42396-4FC9-403D-B49E-874B00F7E108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7CBA05C-1F66-4865-BDC4-E12F18322641}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{087529C0-791B-4B2B-AE78-21E23037E87A}"/>
+    <workbookView xWindow="6600" yWindow="255" windowWidth="13755" windowHeight="10875" xr2:uid="{087529C0-791B-4B2B-AE78-21E23037E87A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="73">
   <si>
     <t>SSA Trust Content</t>
   </si>
@@ -185,6 +185,75 @@
   </si>
   <si>
     <t>web_FB_SSA.html</t>
+  </si>
+  <si>
+    <t>protectYourself.html</t>
+  </si>
+  <si>
+    <t>amazonHP.html</t>
+  </si>
+  <si>
+    <t>irs.html</t>
+  </si>
+  <si>
+    <t>IRS_YourAccount.html</t>
+  </si>
+  <si>
+    <t>appleID.html</t>
+  </si>
+  <si>
+    <t>amazonProductPage.html</t>
+  </si>
+  <si>
+    <t>mcafee.html</t>
+  </si>
+  <si>
+    <t>getProtected.html</t>
+  </si>
+  <si>
+    <t>redcross_covidRelief.html</t>
+  </si>
+  <si>
+    <t>ssa.html</t>
+  </si>
+  <si>
+    <t>mySocialSecurity.html</t>
+  </si>
+  <si>
+    <t>amazon_maskDelivery.html</t>
+  </si>
+  <si>
+    <t>ssaFb.html</t>
+  </si>
+  <si>
+    <t>ssa_optOut.html</t>
+  </si>
+  <si>
+    <t>ssa_replacementCard.html</t>
+  </si>
+  <si>
+    <t>walmart.html</t>
+  </si>
+  <si>
+    <t>Biz+Govt</t>
+  </si>
+  <si>
+    <t>Letter</t>
+  </si>
+  <si>
+    <t>medicareReview</t>
+  </si>
+  <si>
+    <t>benefitsSuspension</t>
+  </si>
+  <si>
+    <t>Tooltips?</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
 </sst>
 </file>
@@ -545,31 +614,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F532D942-5667-4BB6-BD8C-895099707AD2}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" customWidth="1"/>
-    <col min="5" max="5" width="24.28515625" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" customWidth="1"/>
     <col min="7" max="7" width="30.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G3" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G3" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -595,7 +667,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>4</v>
       </c>
@@ -614,8 +686,14 @@
       <c r="G5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>50</v>
+      </c>
+      <c r="J5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>13</v>
       </c>
@@ -634,8 +712,14 @@
       <c r="G6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
+        <v>51</v>
+      </c>
+      <c r="J6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>4</v>
       </c>
@@ -654,8 +738,14 @@
       <c r="G7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H7" t="s">
+        <v>52</v>
+      </c>
+      <c r="J7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>13</v>
       </c>
@@ -674,8 +764,14 @@
       <c r="G8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H8" t="s">
+        <v>53</v>
+      </c>
+      <c r="J8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>13</v>
       </c>
@@ -694,8 +790,14 @@
       <c r="G9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>13</v>
       </c>
@@ -714,8 +816,14 @@
       <c r="G10" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H10" t="s">
+        <v>55</v>
+      </c>
+      <c r="J10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>4</v>
       </c>
@@ -734,8 +842,14 @@
       <c r="G11" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H11" t="s">
+        <v>56</v>
+      </c>
+      <c r="J11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>4</v>
       </c>
@@ -754,8 +868,14 @@
       <c r="G12" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H12" t="s">
+        <v>57</v>
+      </c>
+      <c r="J12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>4</v>
       </c>
@@ -774,8 +894,11 @@
       <c r="G14" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>13</v>
       </c>
@@ -794,8 +917,11 @@
       <c r="G15" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>13</v>
       </c>
@@ -814,8 +940,11 @@
       <c r="G16" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>4</v>
       </c>
@@ -834,8 +963,11 @@
       <c r="G17" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>13</v>
       </c>
@@ -849,13 +981,16 @@
         <v>42</v>
       </c>
       <c r="F18" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="G18" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>4</v>
       </c>
@@ -874,8 +1009,11 @@
       <c r="G19" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>4</v>
       </c>
@@ -894,8 +1032,11 @@
       <c r="G20" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>13</v>
       </c>
@@ -913,6 +1054,43 @@
       </c>
       <c r="G21" t="s">
         <v>47</v>
+      </c>
+      <c r="H21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" t="s">
+        <v>35</v>
+      </c>
+      <c r="H22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" t="s">
+        <v>35</v>
+      </c>
+      <c r="H23" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/Study_Design/ContentMap.xlsx
+++ b/Study_Design/ContentMap.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steve\Google Drive\Dev\src\SSATrust\SSATrust\Study_Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7CBA05C-1F66-4865-BDC4-E12F18322641}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A67810-BC25-40B2-996B-CBAB6E78127E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6600" yWindow="255" windowWidth="13755" windowHeight="10875" xr2:uid="{087529C0-791B-4B2B-AE78-21E23037E87A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{087529C0-791B-4B2B-AE78-21E23037E87A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,26 +35,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="72">
   <si>
     <t>SSA Trust Content</t>
   </si>
   <si>
-    <t>Qualtrics</t>
-  </si>
-  <si>
-    <t>BehavioralSurvey</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
     <t>Email</t>
   </si>
   <si>
-    <t>File Name</t>
-  </si>
-  <si>
     <t>Real?</t>
   </si>
   <si>
@@ -64,15 +55,9 @@
     <t>Training</t>
   </si>
   <si>
-    <t>Description</t>
-  </si>
-  <si>
     <t>email_protectYourself.html</t>
   </si>
   <si>
-    <t>Tracker ID</t>
-  </si>
-  <si>
     <t>ProtectYourself</t>
   </si>
   <si>
@@ -254,6 +239,18 @@
   </si>
   <si>
     <t>yes</t>
+  </si>
+  <si>
+    <t>Qualtrics_EmbeddedFile</t>
+  </si>
+  <si>
+    <t>AppFile</t>
+  </si>
+  <si>
+    <t>ContentName</t>
+  </si>
+  <si>
+    <t>na</t>
   </si>
 </sst>
 </file>
@@ -614,483 +611,500 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F532D942-5667-4BB6-BD8C-895099707AD2}">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="7.42578125" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" customWidth="1"/>
-    <col min="7" max="7" width="30.5703125" customWidth="1"/>
+    <col min="1" max="1" width="7.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" customWidth="1"/>
+    <col min="6" max="6" width="30.5703125" customWidth="1"/>
+    <col min="7" max="7" width="27.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G3" s="1" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="J3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" t="s">
         <v>6</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="F4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="D5" t="s">
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
         <v>14</v>
       </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" t="s">
         <v>50</v>
       </c>
-      <c r="J5" t="s">
+      <c r="H9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H12" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>8</v>
       </c>
-      <c r="D6" t="s">
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" t="s">
+        <v>54</v>
+      </c>
+      <c r="H13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
         <v>14</v>
       </c>
-      <c r="E6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" t="s">
-        <v>51</v>
-      </c>
-      <c r="J6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" t="s">
-        <v>52</v>
-      </c>
-      <c r="J7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" t="s">
-        <v>53</v>
-      </c>
-      <c r="J8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" t="s">
-        <v>54</v>
-      </c>
-      <c r="J9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10" t="s">
-        <v>55</v>
-      </c>
-      <c r="J10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" t="s">
-        <v>56</v>
-      </c>
-      <c r="J11" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" t="s">
-        <v>29</v>
-      </c>
-      <c r="H12" t="s">
-        <v>57</v>
-      </c>
-      <c r="J12" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" t="s">
-        <v>37</v>
-      </c>
       <c r="D14" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="E14" t="s">
         <v>30</v>
       </c>
       <c r="F14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" t="s">
+        <v>55</v>
+      </c>
+      <c r="H14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" t="s">
+        <v>56</v>
+      </c>
+      <c r="H15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" t="s">
+        <v>58</v>
+      </c>
+      <c r="H17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" t="s">
+        <v>59</v>
+      </c>
+      <c r="H18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" t="s">
         <v>34</v>
       </c>
-      <c r="G14" t="s">
-        <v>31</v>
-      </c>
-      <c r="H14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="E19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" t="s">
+        <v>60</v>
+      </c>
+      <c r="H19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" t="s">
         <v>14</v>
       </c>
-      <c r="E15" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" t="s">
-        <v>35</v>
-      </c>
-      <c r="G15" t="s">
-        <v>48</v>
-      </c>
-      <c r="H15" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" t="s">
-        <v>36</v>
-      </c>
-      <c r="F16" t="s">
-        <v>35</v>
-      </c>
-      <c r="G16" t="s">
-        <v>43</v>
-      </c>
-      <c r="H16" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" t="s">
-        <v>38</v>
-      </c>
-      <c r="F17" t="s">
-        <v>34</v>
-      </c>
-      <c r="G17" t="s">
-        <v>44</v>
-      </c>
-      <c r="H17" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" t="s">
-        <v>42</v>
-      </c>
-      <c r="F18" t="s">
-        <v>66</v>
-      </c>
-      <c r="G18" t="s">
-        <v>49</v>
-      </c>
-      <c r="H18" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" t="s">
-        <v>41</v>
-      </c>
-      <c r="F19" t="s">
-        <v>35</v>
-      </c>
-      <c r="G19" t="s">
-        <v>45</v>
-      </c>
-      <c r="H19" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" t="s">
-        <v>40</v>
-      </c>
-      <c r="F20" t="s">
-        <v>35</v>
-      </c>
-      <c r="G20" t="s">
-        <v>46</v>
-      </c>
-      <c r="H20" t="s">
+      <c r="E21" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21" t="s">
-        <v>39</v>
-      </c>
-      <c r="F21" t="s">
-        <v>34</v>
-      </c>
-      <c r="G21" t="s">
-        <v>47</v>
-      </c>
-      <c r="H21" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>67</v>
-      </c>
-      <c r="C22" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" t="s">
-        <v>35</v>
-      </c>
-      <c r="H22" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>67</v>
-      </c>
-      <c r="C23" t="s">
-        <v>37</v>
-      </c>
-      <c r="D23" t="s">
-        <v>19</v>
-      </c>
-      <c r="F23" t="s">
-        <v>35</v>
-      </c>
-      <c r="H23" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/Study_Design/ContentMap.xlsx
+++ b/Study_Design/ContentMap.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steve\Google Drive\Dev\src\SSATrust\SSATrust\Study_Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A67810-BC25-40B2-996B-CBAB6E78127E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FCC6DCF-977A-481C-BE2F-8D84138101D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{087529C0-791B-4B2B-AE78-21E23037E87A}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="73">
   <si>
     <t>SSA Trust Content</t>
   </si>
@@ -247,10 +247,13 @@
     <t>AppFile</t>
   </si>
   <si>
-    <t>ContentName</t>
-  </si>
-  <si>
     <t>na</t>
+  </si>
+  <si>
+    <t>Short Name</t>
+  </si>
+  <si>
+    <t>Description</t>
   </si>
 </sst>
 </file>
@@ -611,499 +614,508 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F532D942-5667-4BB6-BD8C-895099707AD2}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" customWidth="1"/>
-    <col min="6" max="6" width="30.5703125" customWidth="1"/>
-    <col min="7" max="7" width="27.85546875" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" customWidth="1"/>
+    <col min="5" max="6" width="20.28515625" customWidth="1"/>
+    <col min="7" max="7" width="30.5703125" customWidth="1"/>
+    <col min="8" max="8" width="27.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
         <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="F3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" t="s">
         <v>68</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>69</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
         <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
       </c>
       <c r="D4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s">
         <v>7</v>
       </c>
-      <c r="E4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>6</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>45</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
       </c>
       <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
         <v>10</v>
       </c>
-      <c r="E5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>46</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
       </c>
       <c r="D6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" t="s">
         <v>12</v>
       </c>
-      <c r="E6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>13</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>47</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
         <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
       </c>
       <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" t="s">
         <v>15</v>
       </c>
-      <c r="E7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>16</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>48</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
         <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
       </c>
       <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" t="s">
         <v>17</v>
       </c>
-      <c r="E8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>18</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>49</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
         <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>5</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
       </c>
       <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
         <v>19</v>
       </c>
-      <c r="E9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>20</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>50</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
         <v>2</v>
-      </c>
-      <c r="B10" t="s">
-        <v>5</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
       </c>
       <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" t="s">
         <v>21</v>
       </c>
-      <c r="E10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>22</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>51</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
         <v>2</v>
-      </c>
-      <c r="B11" t="s">
-        <v>5</v>
       </c>
       <c r="C11" t="s">
         <v>14</v>
       </c>
       <c r="D11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" t="s">
         <v>23</v>
       </c>
-      <c r="E11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>24</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>52</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
         <v>2</v>
-      </c>
-      <c r="B12" t="s">
-        <v>32</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
       </c>
       <c r="D12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" t="s">
         <v>25</v>
       </c>
-      <c r="E12" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>26</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>53</v>
       </c>
-      <c r="H12" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" t="s">
         <v>8</v>
-      </c>
-      <c r="B13" t="s">
-        <v>32</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
       </c>
       <c r="D13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" t="s">
         <v>27</v>
       </c>
-      <c r="E13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>43</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>54</v>
       </c>
-      <c r="H13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s">
         <v>8</v>
-      </c>
-      <c r="B14" t="s">
-        <v>32</v>
       </c>
       <c r="C14" t="s">
         <v>14</v>
       </c>
       <c r="D14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" t="s">
         <v>31</v>
       </c>
-      <c r="E14" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>38</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>55</v>
       </c>
-      <c r="H14" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" t="s">
         <v>2</v>
-      </c>
-      <c r="B15" t="s">
-        <v>32</v>
       </c>
       <c r="C15" t="s">
         <v>9</v>
       </c>
       <c r="D15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" t="s">
         <v>33</v>
       </c>
-      <c r="E15" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>39</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>56</v>
       </c>
-      <c r="H15" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
         <v>8</v>
-      </c>
-      <c r="B16" t="s">
-        <v>32</v>
       </c>
       <c r="C16" t="s">
         <v>14</v>
       </c>
       <c r="D16" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" t="s">
         <v>37</v>
       </c>
-      <c r="E16" t="s">
-        <v>61</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>44</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>57</v>
       </c>
-      <c r="H16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
         <v>2</v>
-      </c>
-      <c r="B17" t="s">
-        <v>32</v>
       </c>
       <c r="C17" t="s">
         <v>14</v>
       </c>
       <c r="D17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" t="s">
         <v>36</v>
       </c>
-      <c r="E17" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>40</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>58</v>
       </c>
-      <c r="H17" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" t="s">
         <v>2</v>
-      </c>
-      <c r="B18" t="s">
-        <v>32</v>
       </c>
       <c r="C18" t="s">
         <v>9</v>
       </c>
       <c r="D18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" t="s">
         <v>35</v>
       </c>
-      <c r="E18" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>41</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>59</v>
       </c>
-      <c r="H18" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" t="s">
         <v>8</v>
-      </c>
-      <c r="B19" t="s">
-        <v>32</v>
       </c>
       <c r="C19" t="s">
         <v>9</v>
       </c>
       <c r="D19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" t="s">
         <v>34</v>
       </c>
-      <c r="E19" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>42</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>60</v>
       </c>
-      <c r="H19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
         <v>62</v>
-      </c>
-      <c r="B20" t="s">
-        <v>32</v>
       </c>
       <c r="C20" t="s">
         <v>9</v>
       </c>
+      <c r="D20" t="s">
+        <v>30</v>
+      </c>
       <c r="E20" t="s">
-        <v>30</v>
-      </c>
-      <c r="G20" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" t="s">
         <v>62</v>
-      </c>
-      <c r="B21" t="s">
-        <v>32</v>
       </c>
       <c r="C21" t="s">
         <v>14</v>
       </c>
+      <c r="D21" t="s">
+        <v>30</v>
+      </c>
       <c r="E21" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" t="s">
+        <v>64</v>
+      </c>
+      <c r="H21" t="s">
         <v>64</v>
       </c>
     </row>
